--- a/copyDevExercise.xlsx
+++ b/copyDevExercise.xlsx
@@ -18,12 +18,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="26">
   <si>
     <t>Region</t>
   </si>
   <si>
     <t>Department</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
   <si>
     <t>East</t>
@@ -489,13 +492,16 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>800</v>
@@ -515,10 +521,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>900</v>
@@ -538,10 +544,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>4850</v>
@@ -561,10 +567,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>1250</v>
@@ -584,10 +590,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>2025</v>
@@ -607,10 +613,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>1350</v>
@@ -630,10 +636,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>3300</v>
@@ -653,10 +659,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3">
         <v>3825</v>
@@ -676,10 +682,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>8900</v>
@@ -699,10 +705,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3">
         <v>6250</v>
@@ -722,10 +728,10 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3">
         <v>8000</v>
@@ -745,10 +751,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>11500</v>
@@ -768,10 +774,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3">
         <v>12250</v>
@@ -791,10 +797,10 @@
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3">
         <v>25000</v>
@@ -833,7 +839,7 @@
         <v>150780</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,7 +847,7 @@
         <v>424000</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -849,7 +855,7 @@
         <v>153660</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,7 +863,7 @@
         <v>361140</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -893,13 +899,16 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>800</v>
@@ -919,10 +928,10 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>850</v>
@@ -942,10 +951,10 @@
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>940</v>
@@ -965,10 +974,10 @@
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
         <v>980</v>
@@ -988,10 +997,10 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
         <v>1250</v>
@@ -1011,10 +1020,10 @@
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
         <v>1150</v>
@@ -1034,10 +1043,10 @@
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>2410</v>
@@ -1057,10 +1066,10 @@
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3">
         <v>3200</v>
@@ -1080,10 +1089,10 @@
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
         <v>5000</v>
@@ -1103,10 +1112,10 @@
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3">
         <v>5250</v>
@@ -1126,10 +1135,10 @@
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3">
         <v>6020</v>
@@ -1149,10 +1158,10 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>12940</v>
@@ -1172,10 +1181,10 @@
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3">
         <v>14250</v>
@@ -1195,10 +1204,10 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3">
         <v>25700</v>
@@ -1250,13 +1259,16 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8">
         <v>2140</v>
@@ -1276,10 +1288,10 @@
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="8">
         <v>730</v>
@@ -1299,10 +1311,10 @@
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="8">
         <v>700</v>
@@ -1322,10 +1334,10 @@
     </row>
     <row r="5" ht="16.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8">
         <v>2000</v>
@@ -1345,10 +1357,10 @@
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8">
         <v>745</v>
@@ -1368,10 +1380,10 @@
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8">
         <v>1150</v>
@@ -1391,10 +1403,10 @@
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="8">
         <v>2780</v>
@@ -1414,10 +1426,10 @@
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="8">
         <v>3490</v>
@@ -1437,10 +1449,10 @@
     </row>
     <row r="10" ht="16.5" customHeight="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="8">
         <v>4700</v>
@@ -1460,10 +1472,10 @@
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9">
         <v>5250</v>
@@ -1483,10 +1495,10 @@
     </row>
     <row r="12" ht="16.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9">
         <v>6980</v>
@@ -1506,10 +1518,10 @@
     </row>
     <row r="13" ht="16.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="9">
         <v>11250</v>
@@ -1529,10 +1541,10 @@
     </row>
     <row r="14" ht="16.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9">
         <v>24500</v>
@@ -1552,10 +1564,10 @@
     </row>
     <row r="15" ht="16.5" customHeight="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9">
         <v>56900</v>
@@ -1575,10 +1587,10 @@
     </row>
     <row r="16" ht="16.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="9">
         <v>24290</v>
@@ -1629,13 +1641,16 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7">
         <v>775</v>
@@ -1655,10 +1670,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7">
         <v>700</v>
@@ -1678,10 +1693,10 @@
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="7">
         <v>300</v>
@@ -1701,10 +1716,10 @@
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7">
         <v>2000</v>
@@ -1724,10 +1739,10 @@
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7">
         <v>2000</v>
@@ -1747,10 +1762,10 @@
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7">
         <v>1250</v>
@@ -1770,10 +1785,10 @@
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="7">
         <v>1150</v>
@@ -1793,10 +1808,10 @@
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7">
         <v>3800</v>
@@ -1816,10 +1831,10 @@
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="7">
         <v>5000</v>
@@ -1839,10 +1854,10 @@
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7">
         <v>5000</v>
@@ -1862,10 +1877,10 @@
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7">
         <v>5250</v>
@@ -1885,10 +1900,10 @@
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>10250</v>
@@ -1908,10 +1923,10 @@
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>14500</v>
@@ -1931,10 +1946,10 @@
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>72000</v>
@@ -1954,10 +1969,10 @@
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>25000</v>
